--- a/docs/artifacts/rules/information-addition-svein-harald.xlsx
+++ b/docs/artifacts/rules/information-addition-svein-harald.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4FB99-C3AA-44D7-8ECD-7CFE1B4C9BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B227FDB-D479-4661-97F4-1EB53086169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Classes" sheetId="3" r:id="rId3"/>
     <sheet name="LastProperties" sheetId="4" r:id="rId4"/>
     <sheet name="LastClasses" sheetId="5" r:id="rId5"/>
+    <sheet name="LastMetadata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="121">
   <si>
     <t>role</t>
   </si>
@@ -381,12 +382,21 @@
   </si>
   <si>
     <t>Inf</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>Jon,Emma,David,Alice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -471,6 +481,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2949,4 +2960,126 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6EF7B3-3653-43A9-A64A-DCF274C66021}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45431.300828611107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45431.300828611107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/artifacts/rules/information-addition-svein-harald.xlsx
+++ b/docs/artifacts/rules/information-addition-svein-harald.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/docs/artifacts/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B227FDB-D479-4661-97F4-1EB53086169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E9A0F7-93D6-0242-A54C-7F10C9E7087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="Classes" sheetId="3" r:id="rId3"/>
-    <sheet name="LastProperties" sheetId="4" r:id="rId4"/>
+    <sheet name="Classes" sheetId="3" r:id="rId2"/>
+    <sheet name="Properties" sheetId="2" r:id="rId3"/>
+    <sheet name="LastMetadata" sheetId="6" r:id="rId4"/>
     <sheet name="LastClasses" sheetId="5" r:id="rId5"/>
-    <sheet name="LastMetadata" sheetId="6" r:id="rId6"/>
+    <sheet name="LastProperties" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="119">
   <si>
     <t>role</t>
   </si>
@@ -51,21 +64,9 @@
     <t>addition</t>
   </si>
   <si>
-    <t>prefix</t>
-  </si>
-  <si>
     <t>power</t>
   </si>
   <si>
-    <t>namespace</t>
-  </si>
-  <si>
-    <t>https://purl.orgl/neat/power/</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>Power to Consumer Data Model</t>
   </si>
   <si>
@@ -93,12 +94,6 @@
     <t>creator</t>
   </si>
   <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>rights</t>
-  </si>
-  <si>
     <t>Definition of Properties per Class</t>
   </si>
   <si>
@@ -384,20 +379,29 @@
     <t>Inf</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
     <t>Jon,Emma,David,Alice</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>power2consumer</t>
+  </si>
+  <si>
+    <t>2024-05-07T07:04:28.164000Z</t>
+  </si>
+  <si>
+    <t>2024-05-07T07:04:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,16 +413,38 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -471,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,7 +507,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,19 +818,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -812,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,75 +862,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -905,6 +924,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -913,15 +1002,15 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -936,175 +1025,175 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1121,26 +1210,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6EF7B3-3653-43A9-A64A-DCF274C66021}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="243" workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1149,38 +1352,202 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
@@ -1200,19 +1567,19 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1227,58 +1594,58 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1293,7 +1660,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1308,17 +1675,17 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -1333,7 +1700,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1348,17 +1715,17 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1373,7 +1740,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1388,17 +1755,17 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1413,17 +1780,17 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -1438,17 +1805,17 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1463,17 +1830,17 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1488,7 +1855,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1503,17 +1870,17 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1528,17 +1895,17 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1553,17 +1920,17 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1578,7 +1945,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1593,19 +1960,19 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1620,17 +1987,17 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1645,17 +2012,17 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1670,17 +2037,17 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1695,17 +2062,17 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1720,7 +2087,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1735,17 +2102,17 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -1760,7 +2127,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1775,17 +2142,17 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -1798,17 +2165,17 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1823,17 +2190,17 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -1848,7 +2215,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1863,17 +2230,17 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1886,7 +2253,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1901,17 +2268,17 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -1926,17 +2293,17 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -1951,7 +2318,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1966,17 +2333,17 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1989,7 +2356,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2004,17 +2371,17 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -2029,17 +2396,17 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -2054,17 +2421,17 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -2079,17 +2446,17 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -2104,7 +2471,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2119,17 +2486,17 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2142,17 +2509,17 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2165,17 +2532,17 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2188,17 +2555,17 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2213,17 +2580,17 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2238,17 +2605,17 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -2263,17 +2630,17 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2288,17 +2655,17 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
@@ -2313,17 +2680,17 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2338,17 +2705,17 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -2363,7 +2730,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2378,17 +2745,17 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2403,7 +2770,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2418,17 +2785,17 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2443,17 +2810,17 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2468,7 +2835,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2483,17 +2850,17 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -2506,17 +2873,17 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -2531,17 +2898,17 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -2556,17 +2923,17 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -2579,7 +2946,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2594,17 +2961,17 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2619,17 +2986,17 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F64" s="3">
         <v>1</v>
@@ -2644,17 +3011,17 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2669,17 +3036,17 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2694,17 +3061,17 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
@@ -2725,361 +3092,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="7" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6EF7B3-3653-43A9-A64A-DCF274C66021}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7">
-        <v>45431.300828611107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7">
-        <v>45431.300828611107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/artifacts/rules/information-addition-svein-harald.xlsx
+++ b/docs/artifacts/rules/information-addition-svein-harald.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/docs/artifacts/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E9A0F7-93D6-0242-A54C-7F10C9E7087A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F5D894-2452-6243-958B-7544076EF91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,10 +503,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -516,6 +512,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,34 +863,34 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -941,15 +941,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1009,21 +1009,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="243" workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1257,34 +1257,34 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1342,15 +1342,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1578,21 +1578,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
